--- a/workspaces/mapping/mapping_scheds.xlsx
+++ b/workspaces/mapping/mapping_scheds.xlsx
@@ -679,13 +679,13 @@
         <v>0.8368421052631578</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>0.8578947368421053</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>0.8789473684210527</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>0.9</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
